--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Номер</t>
   </si>
@@ -108,7 +108,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,13 +118,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -593,157 +586,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1071,7 +1061,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -1125,10 +1115,10 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" ht="34" customHeight="1" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1218,7 +1208,9 @@
       <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" ht="34" customHeight="1" spans="1:11">

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -26,8 +26,42 @@
 </workbook>
 </file>
 
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ID_AAAED62E82D54B409AB5C8B0C7DD6A82"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17099280" y="1892300"/>
+          <a:ext cx="11239500" cy="9191625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+</etc:cellImages>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Номер</t>
   </si>
@@ -59,6 +93,9 @@
     <t>Есть ли неустойчивость?</t>
   </si>
   <si>
+    <t>Картинка</t>
+  </si>
+  <si>
     <t>1.2</t>
   </si>
   <si>
@@ -96,6 +133,12 @@
   </si>
   <si>
     <t>2 (TVD)</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>488000</t>
   </si>
 </sst>
 </file>
@@ -731,12 +774,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1061,7 +1107,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -1112,119 +1158,144 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" ht="34" customHeight="1" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" ht="34" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" ht="34" customHeight="1" spans="1:11">
       <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" ht="34" customHeight="1" spans="1:11">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</f>
+        <v>=DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</v>
+      </c>
     </row>
     <row r="6" ht="34" customHeight="1" spans="1:11">
       <c r="A6" s="2"/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13440"/>
+    <workbookView windowWidth="25600" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,11 +57,185 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="ID_4CFD75D374CE4DDE9E03BA4DC092D744"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17416145" y="2374900"/>
+          <a:ext cx="10467975" cy="8772525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="ID_6DCA3A3E153C4171953BC0544CE3C76A"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17416145" y="2819400"/>
+          <a:ext cx="10601325" cy="9353550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="ID_49006A477D2349A0BE5661F7511B2CBC"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17416145" y="3263900"/>
+          <a:ext cx="11410950" cy="9458325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="ID_3E0A4FA4EAAE4CACB77C08B689004E55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15763240" y="3886200"/>
+          <a:ext cx="9620250" cy="7858125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="ID_02B3F99283104BCBB532A5A0354AB72C"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15763240" y="4356100"/>
+          <a:ext cx="10563225" cy="8715375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="ID_366E786B952A41FE99959142F23A6F54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15763240" y="4826000"/>
+          <a:ext cx="9448800" cy="9439275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
   <si>
     <t>Номер</t>
   </si>
@@ -69,9 +243,6 @@
     <t>Угол центра перепада (градусов)</t>
   </si>
   <si>
-    <t>l (угол\ширина перепада)</t>
-  </si>
-  <si>
     <t>d (отношение перепада)</t>
   </si>
   <si>
@@ -96,6 +267,9 @@
     <t>Картинка</t>
   </si>
   <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
     <t>1.2</t>
   </si>
   <si>
@@ -139,6 +313,51 @@
   </si>
   <si>
     <t>488000</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>965500</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Какая-то слишком сильная неустойчивость</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>27.5 - 32.5</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>25 - 35</t>
+  </si>
+  <si>
+    <t>неустойчивость слабая, в тонком слое вблизи гелиопаузы, на высоких широтах</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>20 - 40</t>
+  </si>
+  <si>
+    <t>сильная неустойчивость, видимо на низких широтах неустойчивость усиливается</t>
   </si>
 </sst>
 </file>
@@ -151,7 +370,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +380,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -644,137 +870,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -783,6 +1009,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1104,27 +1333,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.2222222222222" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.4444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5555555555556" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.4444444444444" style="1" customWidth="1"/>
-    <col min="11" max="11" width="41.4444444444444" style="1" customWidth="1"/>
-    <col min="12" max="16" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="17" max="22" width="16.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.2181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5545454545455" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.4454545454545" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.3363636363636" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.4454545454545" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5545454545455" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.4454545454545" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.4545454545455" style="1" customWidth="1"/>
+    <col min="11" max="11" width="58.3909090909091" style="1" customWidth="1"/>
+    <col min="12" max="15" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="16" max="21" width="16.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:11">
@@ -1158,11 +1387,11 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="34" customHeight="1" spans="1:11">
+    <row r="2" ht="37" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1170,32 +1399,29 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" ht="34" customHeight="1" spans="1:11">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" ht="37" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1203,32 +1429,29 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:11">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" ht="37" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1236,32 +1459,29 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" ht="34" customHeight="1" spans="1:11">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" ht="37" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1269,113 +1489,239 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="3" t="str">
+      <c r="J5" s="3" t="str">
         <f>_xlfn.DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</f>
         <v>=DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</v>
       </c>
     </row>
-    <row r="6" ht="34" customHeight="1" spans="1:11">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
+    <row r="6" ht="37" customHeight="1" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</f>
+        <v>=DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</v>
+      </c>
+    </row>
+    <row r="7" ht="37" customHeight="1" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</f>
+        <v>=DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="37" customHeight="1" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</f>
+        <v>=DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</v>
+      </c>
+    </row>
+    <row r="9" ht="37" customHeight="1" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_3E0A4FA4EAAE4CACB77C08B689004E55",1)</f>
+        <v>=DISPIMG("ID_3E0A4FA4EAAE4CACB77C08B689004E55",1)</v>
+      </c>
+    </row>
+    <row r="10" ht="37" customHeight="1" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</f>
+        <v>=DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="37" customHeight="1" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f>_xlfn.DISPIMG("ID_366E786B952A41FE99959142F23A6F54",1)</f>
+        <v>=DISPIMG("ID_366E786B952A41FE99959142F23A6F54",1)</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" ht="37" customHeight="1" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1386,8 +1732,284 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
+    </row>
+    <row r="13" ht="37" customHeight="1" spans="1:10">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" ht="37" customHeight="1" spans="1:10">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" ht="37" customHeight="1" spans="1:10">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" ht="37" customHeight="1" spans="1:10">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" ht="37" customHeight="1" spans="1:10">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" ht="37" customHeight="1" spans="1:10">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" ht="37" customHeight="1" spans="1:10">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" ht="37" customHeight="1" spans="1:10">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" ht="37" customHeight="1" spans="1:10">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" ht="37" customHeight="1" spans="1:10">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" ht="37" customHeight="1" spans="1:10">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" ht="37" customHeight="1" spans="1:10">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" ht="37" customHeight="1" spans="1:10">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" ht="37" customHeight="1" spans="1:10">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" ht="37" customHeight="1" spans="1:10">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" ht="37" customHeight="1" spans="1:10">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" ht="37" customHeight="1" spans="1:10">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" ht="37" customHeight="1" spans="1:10">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" ht="37" customHeight="1" spans="1:10">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" ht="37" customHeight="1" spans="1:10">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" ht="37" customHeight="1" spans="1:10">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" ht="37" customHeight="1" spans="1:10">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" ht="37" customHeight="1" spans="1:10">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" ht="37" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10400"/>
+    <workbookView windowWidth="23231" windowHeight="9252"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,11 +231,98 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="ID_B6639CE39850471191E748FA5694FB6F"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15476220" y="5295900"/>
+          <a:ext cx="12630150" cy="9820275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="ID_7C45C7571ED744B89C8B413974F434EA"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15476220" y="5765800"/>
+          <a:ext cx="14925675" cy="8458200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="ID_2DC6207669014A37BFB9BE39DC187DCE"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26303605" y="1066800"/>
+          <a:ext cx="24403050" cy="7791450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
   <si>
     <t>Номер</t>
   </si>
@@ -303,6 +390,9 @@
     <t>1.8</t>
   </si>
   <si>
+    <t>Сравнение первого и второго порядка по времени для 3.3 и 3.10</t>
+  </si>
+  <si>
     <t>1.4</t>
   </si>
   <si>
@@ -357,7 +447,22 @@
     <t>20 - 40</t>
   </si>
   <si>
-    <t>сильная неустойчивость, видимо на низких широтах неустойчивость усиливается</t>
+    <t>Что-то странное с помедением плотности, надо проверить это - сильная неустойчивость, видимо на низких широтах неустойчивость усиливается</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>0.55555555</t>
+  </si>
+  <si>
+    <t>да (только К-Г)</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>2 (RK2)</t>
   </si>
 </sst>
 </file>
@@ -370,7 +475,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +485,20 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -537,12 +656,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -870,137 +995,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1008,10 +1133,22 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1333,27 +1470,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.2181818181818" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5545454545455" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.4454545454545" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.3363636363636" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.4454545454545" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5545454545455" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.4454545454545" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.4545454545455" style="1" customWidth="1"/>
-    <col min="11" max="11" width="58.3909090909091" style="1" customWidth="1"/>
-    <col min="12" max="15" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="16" max="21" width="16.3363636363636" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.2222222222222" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5555555555556" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.4444444444444" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.4537037037037" style="1" customWidth="1"/>
+    <col min="11" max="11" width="78.1666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="63.2592592592593" style="1" customWidth="1"/>
+    <col min="13" max="15" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="16" max="21" width="16.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:11">
@@ -1421,7 +1559,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" ht="37" customHeight="1" spans="1:10">
+    <row r="3" ht="37" customHeight="1" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1450,10 +1588,17 @@
         <v>18</v>
       </c>
       <c r="J3" s="2"/>
+      <c r="L3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="6" t="str">
+        <f>_xlfn.DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</f>
+        <v>=DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</v>
+      </c>
     </row>
     <row r="4" ht="37" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
@@ -1462,7 +1607,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -1483,7 +1628,7 @@
     </row>
     <row r="5" ht="37" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
@@ -1492,13 +1637,13 @@
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>16</v>
@@ -1509,14 +1654,14 @@
       <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="3" t="str">
+      <c r="J5" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</f>
         <v>=DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</v>
       </c>
     </row>
     <row r="6" ht="37" customHeight="1" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -1525,13 +1670,13 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>16</v>
@@ -1542,29 +1687,29 @@
       <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</f>
         <v>=DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</v>
       </c>
     </row>
     <row r="7" ht="37" customHeight="1" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>16</v>
@@ -1575,32 +1720,32 @@
       <c r="I7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</f>
         <v>=DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>30</v>
+      <c r="K7" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" ht="37" customHeight="1" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>16</v>
@@ -1611,29 +1756,29 @@
       <c r="I8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="3" t="str">
+      <c r="J8" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</f>
         <v>=DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</v>
       </c>
     </row>
     <row r="9" ht="37" customHeight="1" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>16</v>
@@ -1644,29 +1789,29 @@
       <c r="I9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="3" t="str">
+      <c r="J9" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_3E0A4FA4EAAE4CACB77C08B689004E55",1)</f>
         <v>=DISPIMG("ID_3E0A4FA4EAAE4CACB77C08B689004E55",1)</v>
       </c>
     </row>
     <row r="10" ht="37" customHeight="1" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>16</v>
@@ -1677,32 +1822,32 @@
       <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="3" t="str">
+      <c r="J10" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</f>
         <v>=DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>37</v>
+      <c r="K10" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:11">
-      <c r="A11" s="2" t="s">
-        <v>38</v>
+      <c r="A11" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>16</v>
@@ -1713,37 +1858,79 @@
       <c r="I11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="3" t="str">
+      <c r="J11" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_366E786B952A41FE99959142F23A6F54",1)</f>
         <v>=DISPIMG("ID_366E786B952A41FE99959142F23A6F54",1)</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>40</v>
+      <c r="K11" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" ht="37" customHeight="1" spans="1:10">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f>_xlfn.DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</f>
+        <v>=DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</v>
+      </c>
     </row>
     <row r="13" ht="37" customHeight="1" spans="1:10">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f>_xlfn.DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</f>
+        <v>=DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</v>
+      </c>
     </row>
     <row r="14" ht="37" customHeight="1" spans="1:10">
       <c r="A14" s="2"/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23231" windowHeight="9252"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,42 +205,13 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="ID_366E786B952A41FE99959142F23A6F54"/>
+        <xdr:cNvPr id="9" name="ID_B6639CE39850471191E748FA5694FB6F"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15763240" y="4826000"/>
-          <a:ext cx="9448800" cy="9439275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="ID_B6639CE39850471191E748FA5694FB6F"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -269,7 +240,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -298,7 +269,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -318,11 +289,69 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="ID_FE861988B73846E0B38C47E32EB5393F"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15476220" y="4826000"/>
+          <a:ext cx="11811000" cy="8839200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="ID_6D09333D2B624D3AA8D9D1DBAAFF6749"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15476220" y="6235700"/>
+          <a:ext cx="11315700" cy="9877425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="49">
   <si>
     <t>Номер</t>
   </si>
@@ -447,9 +476,6 @@
     <t>20 - 40</t>
   </si>
   <si>
-    <t>Что-то странное с помедением плотности, надо проверить это - сильная неустойчивость, видимо на низких широтах неустойчивость усиливается</t>
-  </si>
-  <si>
     <t>3.9</t>
   </si>
   <si>
@@ -463,6 +489,15 @@
   </si>
   <si>
     <t>2 (RK2)</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>0-30</t>
+  </si>
+  <si>
+    <t>есть в носике, что-то странное</t>
   </si>
 </sst>
 </file>
@@ -492,7 +527,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1125,7 +1159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1137,6 +1171,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1472,8 +1509,8 @@
   <sheetPr/>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H3" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -1588,10 +1625,10 @@
         <v>18</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="6" t="str">
+      <c r="M3" s="7" t="str">
         <f>_xlfn.DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</f>
         <v>=DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</v>
       </c>
@@ -1654,7 +1691,7 @@
       <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="7" t="str">
+      <c r="J5" s="8" t="str">
         <f>_xlfn.DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</f>
         <v>=DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</v>
       </c>
@@ -1687,7 +1724,7 @@
       <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="7" t="str">
+      <c r="J6" s="8" t="str">
         <f>_xlfn.DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</f>
         <v>=DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</v>
       </c>
@@ -1720,11 +1757,11 @@
       <c r="I7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="7" t="str">
+      <c r="J7" s="8" t="str">
         <f>_xlfn.DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</f>
         <v>=DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1756,7 +1793,7 @@
       <c r="I8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="7" t="str">
+      <c r="J8" s="8" t="str">
         <f>_xlfn.DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</f>
         <v>=DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</v>
       </c>
@@ -1789,7 +1826,7 @@
       <c r="I9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="7" t="str">
+      <c r="J9" s="8" t="str">
         <f>_xlfn.DISPIMG("ID_3E0A4FA4EAAE4CACB77C08B689004E55",1)</f>
         <v>=DISPIMG("ID_3E0A4FA4EAAE4CACB77C08B689004E55",1)</v>
       </c>
@@ -1822,11 +1859,11 @@
       <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="7" t="str">
+      <c r="J10" s="8" t="str">
         <f>_xlfn.DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</f>
         <v>=DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1858,23 +1895,21 @@
       <c r="I11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="7" t="str">
-        <f>_xlfn.DISPIMG("ID_366E786B952A41FE99959142F23A6F54",1)</f>
-        <v>=DISPIMG("ID_366E786B952A41FE99959142F23A6F54",1)</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="J11" s="8" t="str">
+        <f>_xlfn.DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</f>
+        <v>=DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</v>
+      </c>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" ht="37" customHeight="1" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
@@ -1892,16 +1927,16 @@
         <v>17</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="7" t="str">
+        <v>43</v>
+      </c>
+      <c r="J12" s="8" t="str">
         <f>_xlfn.DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</f>
         <v>=DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</v>
       </c>
     </row>
     <row r="13" ht="37" customHeight="1" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>20</v>
@@ -1913,7 +1948,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>28</v>
@@ -1927,25 +1962,46 @@
       <c r="I13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="7" t="str">
+      <c r="J13" s="8" t="str">
         <f>_xlfn.DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</f>
         <v>=DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</v>
       </c>
     </row>
-    <row r="14" ht="37" customHeight="1" spans="1:10">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+    <row r="14" ht="54" customHeight="1" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="8" t="str">
+        <f>_xlfn.DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</f>
+        <v>=DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</v>
+      </c>
     </row>
     <row r="15" ht="37" customHeight="1" spans="1:10">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1957,7 +2013,7 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" ht="37" customHeight="1" spans="1:10">
-      <c r="A16" s="2"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1969,7 +2025,7 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" ht="37" customHeight="1" spans="1:10">
-      <c r="A17" s="2"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
   <si>
     <t>Номер</t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t>2 (RK2)</t>
+  </si>
+  <si>
+    <t>не отличается от схемы первого порядка по времени</t>
   </si>
   <si>
     <t>3.11</t>
@@ -1509,8 +1512,8 @@
   <sheetPr/>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -1934,7 +1937,7 @@
         <v>=DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</v>
       </c>
     </row>
-    <row r="13" ht="37" customHeight="1" spans="1:10">
+    <row r="13" ht="37" customHeight="1" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -1966,13 +1969,16 @@
         <f>_xlfn.DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</f>
         <v>=DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" ht="54" customHeight="1" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
@@ -1993,7 +1999,7 @@
         <v>17</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" s="8" t="str">
         <f>_xlfn.DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</f>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="30720" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="54">
   <si>
     <t>Номер</t>
   </si>
@@ -455,6 +455,9 @@
     <t>35</t>
   </si>
   <si>
+    <t>2 (RK2)</t>
+  </si>
+  <si>
     <t>3.6</t>
   </si>
   <si>
@@ -488,9 +491,6 @@
     <t>3.10</t>
   </si>
   <si>
-    <t>2 (RK2)</t>
-  </si>
-  <si>
     <t>не отличается от схемы первого порядка по времени</t>
   </si>
   <si>
@@ -501,6 +501,18 @@
   </si>
   <si>
     <t>есть в носике, что-то странное</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>1800000</t>
   </si>
 </sst>
 </file>
@@ -693,12 +705,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1038,7 +1056,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1062,16 +1080,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1080,89 +1098,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1170,10 +1188,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1512,8 +1533,8 @@
   <sheetPr/>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -1628,10 +1649,10 @@
         <v>18</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="7" t="str">
+      <c r="M3" s="8" t="str">
         <f>_xlfn.DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</f>
         <v>=DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</v>
       </c>
@@ -1694,7 +1715,7 @@
       <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="8" t="str">
+      <c r="J5" s="9" t="str">
         <f>_xlfn.DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</f>
         <v>=DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</v>
       </c>
@@ -1727,7 +1748,7 @@
       <c r="I6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="8" t="str">
+      <c r="J6" s="9" t="str">
         <f>_xlfn.DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</f>
         <v>=DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</v>
       </c>
@@ -1760,16 +1781,16 @@
       <c r="I7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="8" t="str">
+      <c r="J7" s="9" t="str">
         <f>_xlfn.DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</f>
         <v>=DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" ht="37" customHeight="1" spans="1:10">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1781,8 +1802,8 @@
       <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>28</v>
@@ -1796,17 +1817,17 @@
       <c r="I8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="8" t="str">
+      <c r="J8" s="9" t="str">
         <f>_xlfn.DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</f>
         <v>=DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</v>
       </c>
     </row>
     <row r="9" ht="37" customHeight="1" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -1829,17 +1850,17 @@
       <c r="I9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="8" t="str">
+      <c r="J9" s="9" t="str">
         <f>_xlfn.DISPIMG("ID_3E0A4FA4EAAE4CACB77C08B689004E55",1)</f>
         <v>=DISPIMG("ID_3E0A4FA4EAAE4CACB77C08B689004E55",1)</v>
       </c>
     </row>
     <row r="10" ht="37" customHeight="1" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1862,20 +1883,20 @@
       <c r="I10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="8" t="str">
+      <c r="J10" s="9" t="str">
         <f>_xlfn.DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</f>
         <v>=DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>38</v>
+      <c r="K10" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:11">
-      <c r="A11" s="3" t="s">
-        <v>39</v>
+      <c r="A11" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
@@ -1898,21 +1919,21 @@
       <c r="I11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="8" t="str">
+      <c r="J11" s="9" t="str">
         <f>_xlfn.DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</f>
         <v>=DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" ht="37" customHeight="1" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
@@ -1930,16 +1951,16 @@
         <v>17</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="8" t="str">
+        <v>44</v>
+      </c>
+      <c r="J12" s="9" t="str">
         <f>_xlfn.DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</f>
         <v>=DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</v>
       </c>
     </row>
     <row r="13" ht="37" customHeight="1" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>20</v>
@@ -1951,7 +1972,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>28</v>
@@ -1965,7 +1986,7 @@
       <c r="I13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="8" t="str">
+      <c r="J13" s="9" t="str">
         <f>_xlfn.DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</f>
         <v>=DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</v>
       </c>
@@ -1974,7 +1995,7 @@
       </c>
     </row>
     <row r="14" ht="54" customHeight="1" spans="1:10">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2001,44 +2022,96 @@
       <c r="I14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="8" t="str">
+      <c r="J14" s="9" t="str">
         <f>_xlfn.DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</f>
         <v>=DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</v>
       </c>
     </row>
     <row r="15" ht="37" customHeight="1" spans="1:10">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" ht="37" customHeight="1" spans="1:10">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" ht="37" customHeight="1" spans="1:10">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="A17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="12720"/>
+    <workbookView windowWidth="30720" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="56">
   <si>
     <t>Номер</t>
   </si>
@@ -479,6 +479,9 @@
     <t>20 - 40</t>
   </si>
   <si>
+    <t>почти нет</t>
+  </si>
+  <si>
     <t>3.9</t>
   </si>
   <si>
@@ -513,6 +516,9 @@
   </si>
   <si>
     <t>1800000</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -705,7 +711,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,7 +720,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,7 +1080,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1080,16 +1104,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1098,89 +1122,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1188,13 +1212,31 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1203,13 +1245,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1531,603 +1573,692 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.2222222222222" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5555555555556" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5555555555556" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.4444444444444" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.4537037037037" style="1" customWidth="1"/>
-    <col min="11" max="11" width="78.1666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="63.2592592592593" style="1" customWidth="1"/>
-    <col min="13" max="15" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="16" max="21" width="16.3333333333333" customWidth="1"/>
+    <col min="2" max="5" width="6.02777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.4444444444444" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.4444444444444" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5555555555556" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.4444444444444" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.4537037037037" style="1" customWidth="1"/>
+    <col min="15" max="15" width="78.1666666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="63.2592592592593" style="1" customWidth="1"/>
+    <col min="17" max="19" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="20" max="25" width="16.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47" customHeight="1" spans="1:11">
+    <row r="1" ht="47" customHeight="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="37" customHeight="1" spans="1:10">
+    <row r="2" ht="37" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" ht="37" customHeight="1" spans="1:13">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" ht="37" customHeight="1" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="2"/>
+      <c r="P3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="8" t="str">
+      <c r="Q3" s="16" t="str">
         <f>_xlfn.DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</f>
         <v>=DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</v>
       </c>
     </row>
-    <row r="4" ht="37" customHeight="1" spans="1:10">
+    <row r="4" ht="37" customHeight="1" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" ht="37" customHeight="1" spans="1:10">
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" ht="37" customHeight="1" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="9" t="str">
+      <c r="N5" s="14" t="str">
         <f>_xlfn.DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</f>
         <v>=DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</v>
       </c>
     </row>
-    <row r="6" ht="37" customHeight="1" spans="1:10">
+    <row r="6" ht="37" customHeight="1" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="9" t="str">
+      <c r="N6" s="14" t="str">
         <f>_xlfn.DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</f>
         <v>=DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</v>
       </c>
     </row>
-    <row r="7" ht="37" customHeight="1" spans="1:11">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="37" customHeight="1" spans="1:15">
+      <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="9" t="str">
+      <c r="N7" s="14" t="str">
         <f>_xlfn.DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</f>
         <v>=DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="O7" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="37" customHeight="1" spans="1:10">
-      <c r="A8" s="3" t="s">
+    <row r="8" ht="37" customHeight="1" spans="1:14">
+      <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="I8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="9" t="str">
+      <c r="N8" s="14" t="str">
         <f>_xlfn.DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</f>
         <v>=DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</v>
       </c>
     </row>
-    <row r="9" ht="37" customHeight="1" spans="1:10">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="37" customHeight="1" spans="1:14">
+      <c r="A9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="9" t="str">
+      <c r="N9" s="14" t="str">
         <f>_xlfn.DISPIMG("ID_3E0A4FA4EAAE4CACB77C08B689004E55",1)</f>
         <v>=DISPIMG("ID_3E0A4FA4EAAE4CACB77C08B689004E55",1)</v>
       </c>
     </row>
-    <row r="10" ht="37" customHeight="1" spans="1:11">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="37" customHeight="1" spans="1:15">
+      <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="9" t="str">
+      <c r="N10" s="14" t="str">
         <f>_xlfn.DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</f>
         <v>=DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="O10" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" ht="37" customHeight="1" spans="1:11">
-      <c r="A11" s="5" t="s">
+    <row r="11" ht="37" customHeight="1" spans="1:15">
+      <c r="A11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="9" t="str">
+      <c r="M11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="14" t="str">
         <f>_xlfn.DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</f>
         <v>=DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</v>
       </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" ht="37" customHeight="1" spans="1:10">
-      <c r="A12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" ht="37" customHeight="1" spans="1:14">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="G12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="9" t="str">
+      <c r="M12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="14" t="str">
         <f>_xlfn.DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</f>
         <v>=DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</v>
       </c>
     </row>
-    <row r="13" ht="37" customHeight="1" spans="1:11">
+    <row r="13" ht="37" customHeight="1" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="I13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="9" t="str">
+      <c r="N13" s="14" t="str">
         <f>_xlfn.DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</f>
         <v>=DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" ht="54" customHeight="1" spans="1:10">
-      <c r="A14" s="6" t="s">
+      <c r="O13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="14" ht="54" customHeight="1" spans="1:14">
+      <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="9" t="str">
+      <c r="M14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="14" t="str">
         <f>_xlfn.DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</f>
         <v>=DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</v>
       </c>
     </row>
-    <row r="15" ht="37" customHeight="1" spans="1:10">
-      <c r="A15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="15" ht="37" customHeight="1" spans="1:14">
+      <c r="A15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="I15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" ht="37" customHeight="1" spans="1:10">
-      <c r="A16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" ht="37" customHeight="1" spans="1:14">
+      <c r="A16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="I16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" ht="37" customHeight="1" spans="1:10">
-      <c r="A17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" ht="37" customHeight="1" spans="1:14">
+      <c r="A17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="I17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="J17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" ht="37" customHeight="1" spans="1:10">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" ht="37" customHeight="1" spans="1:10">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" ht="37" customHeight="1" spans="1:14">
+      <c r="A18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" ht="37" customHeight="1" spans="1:14">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2138,8 +2269,12 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" ht="37" customHeight="1" spans="1:10">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" ht="37" customHeight="1" spans="1:14">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2150,8 +2285,12 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" ht="37" customHeight="1" spans="1:10">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" ht="37" customHeight="1" spans="1:14">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2162,8 +2301,12 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-    </row>
-    <row r="22" ht="37" customHeight="1" spans="1:10">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" ht="37" customHeight="1" spans="1:14">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2174,8 +2317,12 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" ht="37" customHeight="1" spans="1:10">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" ht="37" customHeight="1" spans="1:14">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2186,8 +2333,12 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" ht="37" customHeight="1" spans="1:10">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" ht="37" customHeight="1" spans="1:14">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2198,8 +2349,12 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" ht="37" customHeight="1" spans="1:10">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" ht="37" customHeight="1" spans="1:14">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2210,8 +2365,12 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" ht="37" customHeight="1" spans="1:10">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" ht="37" customHeight="1" spans="1:14">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2222,8 +2381,12 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" ht="37" customHeight="1" spans="1:10">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" ht="37" customHeight="1" spans="1:14">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2234,8 +2397,12 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" ht="37" customHeight="1" spans="1:10">
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" ht="37" customHeight="1" spans="1:14">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2246,8 +2413,12 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-    </row>
-    <row r="29" ht="37" customHeight="1" spans="1:10">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" ht="37" customHeight="1" spans="1:14">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2258,8 +2429,12 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-    </row>
-    <row r="30" ht="37" customHeight="1" spans="1:10">
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" ht="37" customHeight="1" spans="1:14">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2270,8 +2445,12 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" ht="37" customHeight="1" spans="1:10">
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" ht="37" customHeight="1" spans="1:14">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2282,8 +2461,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" ht="37" customHeight="1" spans="1:10">
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" ht="37" customHeight="1" spans="1:14">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2294,8 +2477,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" ht="37" customHeight="1" spans="1:10">
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" ht="37" customHeight="1" spans="1:14">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2306,8 +2493,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-    </row>
-    <row r="34" ht="37" customHeight="1" spans="1:10">
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" ht="37" customHeight="1" spans="1:14">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2318,8 +2509,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" ht="37" customHeight="1" spans="1:10">
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" ht="37" customHeight="1" spans="1:14">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2330,10 +2525,15 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
     </row>
     <row r="36" ht="37" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13440"/>
+    <workbookView windowWidth="25600" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="58">
   <si>
     <t>Номер</t>
   </si>
@@ -519,6 +519,12 @@
   </si>
   <si>
     <t>40</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4000000</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1218,9 +1224,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1237,9 +1240,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1576,26 +1576,26 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="5" width="6.02777777777778" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.2222222222222" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5555555555556" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.4444444444444" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5555555555556" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.4444444444444" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.4537037037037" style="1" customWidth="1"/>
-    <col min="15" max="15" width="78.1666666666667" style="1" customWidth="1"/>
-    <col min="16" max="16" width="63.2592592592593" style="1" customWidth="1"/>
-    <col min="17" max="19" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="20" max="25" width="16.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="2" max="5" width="6.02727272727273" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.2181818181818" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5545454545455" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.4454545454545" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.3363636363636" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.4454545454545" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5545454545455" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.4454545454545" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.4545454545455" style="1" customWidth="1"/>
+    <col min="15" max="15" width="78.1636363636364" style="1" customWidth="1"/>
+    <col min="16" max="16" width="63.2636363636364" style="1" customWidth="1"/>
+    <col min="17" max="19" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="20" max="25" width="16.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:15">
@@ -1704,10 +1704,10 @@
         <v>18</v>
       </c>
       <c r="N3" s="2"/>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="16" t="str">
+      <c r="Q3" s="14" t="str">
         <f>_xlfn.DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</f>
         <v>=DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="M5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="14" t="str">
+      <c r="N5" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</f>
         <v>=DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="M6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="14" t="str">
+      <c r="N6" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</f>
         <v>=DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</v>
       </c>
@@ -1824,10 +1824,10 @@
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1852,23 +1852,23 @@
       <c r="M7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="14" t="str">
+      <c r="N7" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</f>
         <v>=DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" ht="37" customHeight="1" spans="1:14">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1877,7 +1877,7 @@
       <c r="H8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>34</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -1892,19 +1892,19 @@
       <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="14" t="str">
+      <c r="N8" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</f>
         <v>=DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</v>
       </c>
     </row>
     <row r="9" ht="37" customHeight="1" spans="1:14">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
@@ -1929,19 +1929,19 @@
       <c r="M9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="14" t="str">
+      <c r="N9" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_3E0A4FA4EAAE4CACB77C08B689004E55",1)</f>
         <v>=DISPIMG("ID_3E0A4FA4EAAE4CACB77C08B689004E55",1)</v>
       </c>
     </row>
     <row r="10" ht="37" customHeight="1" spans="1:15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
@@ -1966,22 +1966,22 @@
       <c r="M10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="14" t="str">
+      <c r="N10" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</f>
         <v>=DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:15">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
@@ -2006,24 +2006,24 @@
       <c r="M11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="14" t="str">
+      <c r="N11" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</f>
         <v>=DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</v>
       </c>
-      <c r="O11" s="15"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" ht="37" customHeight="1" spans="1:14">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -2044,7 +2044,7 @@
       <c r="M12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N12" s="14" t="str">
+      <c r="N12" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</f>
         <v>=DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</v>
       </c>
@@ -2056,8 +2056,8 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -2066,7 +2066,7 @@
       <c r="H13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -2081,7 +2081,7 @@
       <c r="M13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="14" t="str">
+      <c r="N13" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</f>
         <v>=DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</v>
       </c>
@@ -2090,12 +2090,12 @@
       </c>
     </row>
     <row r="14" ht="54" customHeight="1" spans="1:14">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>49</v>
@@ -2121,19 +2121,19 @@
       <c r="M14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="14" t="str">
+      <c r="N14" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</f>
         <v>=DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</v>
       </c>
     </row>
     <row r="15" ht="37" customHeight="1" spans="1:14">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>33</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="H15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>34</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -2161,13 +2161,13 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" ht="37" customHeight="1" spans="1:14">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="H16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>34</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -2195,13 +2195,13 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" ht="37" customHeight="1" spans="1:14">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
         <v>33</v>
       </c>
@@ -2211,7 +2211,7 @@
       <c r="H17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -2227,14 +2227,14 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" ht="37" customHeight="1" spans="1:14">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -2243,7 +2243,7 @@
       <c r="H18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -2259,7 +2259,9 @@
       <c r="N18" s="2"/>
     </row>
     <row r="19" ht="37" customHeight="1" spans="1:14">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2268,7 +2270,9 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10400"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="59">
   <si>
     <t>Номер</t>
   </si>
@@ -521,7 +521,10 @@
     <t>40</t>
   </si>
   <si>
-    <t>5</t>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>22.5 - 37.5</t>
   </si>
   <si>
     <t>4000000</t>
@@ -1575,27 +1578,27 @@
   <sheetPr/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="2" max="5" width="6.02727272727273" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.2181818181818" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5545454545455" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.4454545454545" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.3363636363636" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.4454545454545" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5545454545455" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.4454545454545" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.4545454545455" style="1" customWidth="1"/>
-    <col min="15" max="15" width="78.1636363636364" style="1" customWidth="1"/>
-    <col min="16" max="16" width="63.2636363636364" style="1" customWidth="1"/>
-    <col min="17" max="19" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="20" max="25" width="16.3363636363636" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="5" width="6.02777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.4444444444444" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.4444444444444" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5555555555556" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.4444444444444" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.4537037037037" style="1" customWidth="1"/>
+    <col min="15" max="15" width="78.1666666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="63.2592592592593" style="1" customWidth="1"/>
+    <col min="17" max="19" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="20" max="25" width="16.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:15">
@@ -2266,12 +2269,14 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="25600" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1578,27 +1578,27 @@
   <sheetPr/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="5" width="6.02777777777778" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.2222222222222" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5555555555556" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.4444444444444" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5555555555556" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.4444444444444" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.4537037037037" style="1" customWidth="1"/>
-    <col min="15" max="15" width="78.1666666666667" style="1" customWidth="1"/>
-    <col min="16" max="16" width="63.2592592592593" style="1" customWidth="1"/>
-    <col min="17" max="19" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="20" max="25" width="16.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="2" max="5" width="6.02727272727273" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.2181818181818" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5545454545455" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.4454545454545" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.3363636363636" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.4454545454545" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5545454545455" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.4454545454545" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.4545454545455" style="1" customWidth="1"/>
+    <col min="15" max="15" width="78.1636363636364" style="1" customWidth="1"/>
+    <col min="16" max="16" width="63.2636363636364" style="1" customWidth="1"/>
+    <col min="17" max="19" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="20" max="25" width="16.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:15">

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10400"/>
+    <workbookView windowWidth="30720" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,11 +347,40 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="ID_F8652202BAD9483CA0345616A3ED7FD4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17129760" y="8801100"/>
+          <a:ext cx="15478125" cy="9763125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="59">
   <si>
     <t>Номер</t>
   </si>
@@ -521,13 +550,13 @@
     <t>40</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>4.2</t>
   </si>
   <si>
     <t>22.5 - 37.5</t>
   </si>
   <si>
-    <t>4000000</t>
+    <t>очень слабая неустойчивость, вряд-ли будет какое-то существенное проявление в картах ENA</t>
   </si>
 </sst>
 </file>
@@ -1578,27 +1607,27 @@
   <sheetPr/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="2" max="5" width="6.02727272727273" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.2181818181818" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5545454545455" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.4454545454545" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.3363636363636" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.4454545454545" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5545454545455" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.4454545454545" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.4545454545455" style="1" customWidth="1"/>
-    <col min="15" max="15" width="78.1636363636364" style="1" customWidth="1"/>
-    <col min="16" max="16" width="63.2636363636364" style="1" customWidth="1"/>
-    <col min="17" max="19" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="20" max="25" width="16.3363636363636" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="5" width="6.02777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.4444444444444" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.4444444444444" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5555555555556" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.4444444444444" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.4537037037037" style="1" customWidth="1"/>
+    <col min="15" max="15" width="81.2685185185185" style="1" customWidth="1"/>
+    <col min="16" max="16" width="63.2592592592593" style="1" customWidth="1"/>
+    <col min="17" max="19" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="20" max="25" width="16.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:15">
@@ -2261,7 +2290,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" ht="37" customHeight="1" spans="1:14">
+    <row r="19" ht="37" customHeight="1" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2272,16 +2301,34 @@
       <c r="F19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="J19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_F8652202BAD9483CA0345616A3ED7FD4",1)</f>
+        <v>=DISPIMG("ID_F8652202BAD9483CA0345616A3ED7FD4",1)</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
     </row>
     <row r="20" ht="37" customHeight="1" spans="1:14">
       <c r="A20" s="2"/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13440"/>
+    <workbookView windowWidth="25600" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="61">
   <si>
     <t>Номер</t>
   </si>
@@ -557,6 +557,12 @@
   </si>
   <si>
     <t>очень слабая неустойчивость, вряд-ли будет какое-то существенное проявление в картах ENA</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>3000000</t>
   </si>
 </sst>
 </file>
@@ -1607,27 +1613,27 @@
   <sheetPr/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="5" width="6.02777777777778" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.2222222222222" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5555555555556" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.4444444444444" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5555555555556" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.4444444444444" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.4537037037037" style="1" customWidth="1"/>
-    <col min="15" max="15" width="81.2685185185185" style="1" customWidth="1"/>
-    <col min="16" max="16" width="63.2592592592593" style="1" customWidth="1"/>
-    <col min="17" max="19" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="20" max="25" width="16.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="2" max="5" width="6.02727272727273" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.2181818181818" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5545454545455" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.4454545454545" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.3363636363636" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.4454545454545" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5545454545455" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.4454545454545" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.4545454545455" style="1" customWidth="1"/>
+    <col min="15" max="15" width="81.2727272727273" style="1" customWidth="1"/>
+    <col min="16" max="16" width="63.2636363636364" style="1" customWidth="1"/>
+    <col min="17" max="19" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="20" max="25" width="16.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:15">
@@ -2331,19 +2337,37 @@
       </c>
     </row>
     <row r="20" ht="37" customHeight="1" spans="1:14">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="N20" s="2"/>
     </row>
     <row r="21" ht="37" customHeight="1" spans="1:14">

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10400"/>
+    <workbookView windowWidth="30720" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,11 +376,40 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="ID_3840878A904E4B56A2DD87192D35456F"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17129760" y="9271000"/>
+          <a:ext cx="13106400" cy="9801225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="62">
   <si>
     <t>Номер</t>
   </si>
@@ -562,7 +591,10 @@
     <t>5.1</t>
   </si>
   <si>
-    <t>3000000</t>
+    <t>3700000</t>
+  </si>
+  <si>
+    <t>5.2</t>
   </si>
 </sst>
 </file>
@@ -1613,27 +1645,27 @@
   <sheetPr/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="2" max="5" width="6.02727272727273" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.2181818181818" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5545454545455" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.4454545454545" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.3363636363636" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.4454545454545" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5545454545455" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.4454545454545" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.4545454545455" style="1" customWidth="1"/>
-    <col min="15" max="15" width="81.2727272727273" style="1" customWidth="1"/>
-    <col min="16" max="16" width="63.2636363636364" style="1" customWidth="1"/>
-    <col min="17" max="19" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="20" max="25" width="16.3363636363636" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="5" width="6.02777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.4444444444444" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.4444444444444" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5555555555556" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.4444444444444" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.4537037037037" style="1" customWidth="1"/>
+    <col min="15" max="15" width="81.2685185185185" style="1" customWidth="1"/>
+    <col min="16" max="16" width="63.2592592592593" style="1" customWidth="1"/>
+    <col min="17" max="19" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="20" max="25" width="16.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:15">
@@ -2368,22 +2400,43 @@
       <c r="M20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_3840878A904E4B56A2DD87192D35456F",1)</f>
+        <v>=DISPIMG("ID_3840878A904E4B56A2DD87192D35456F",1)</v>
+      </c>
     </row>
     <row r="21" ht="37" customHeight="1" spans="1:14">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="N21" s="2"/>
     </row>
     <row r="22" ht="37" customHeight="1" spans="1:14">

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13440"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,11 +405,40 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="ID_D3ACB0D6ED9E402EB08DE4311E6D85F2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17129760" y="9740900"/>
+          <a:ext cx="9029700" cy="7915275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="64">
   <si>
     <t>Номер</t>
   </si>
@@ -595,6 +624,12 @@
   </si>
   <si>
     <t>5.2</t>
+  </si>
+  <si>
+    <t>Тут рэлей тейлор появился!</t>
+  </si>
+  <si>
+    <t>5.3</t>
   </si>
 </sst>
 </file>
@@ -1645,8 +1680,8 @@
   <sheetPr/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2405,7 +2440,7 @@
         <v>=DISPIMG("ID_3840878A904E4B56A2DD87192D35456F",1)</v>
       </c>
     </row>
-    <row r="21" ht="37" customHeight="1" spans="1:14">
+    <row r="21" ht="37" customHeight="1" spans="1:15">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
@@ -2437,22 +2472,46 @@
       <c r="M21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="2"/>
+      <c r="N21" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_D3ACB0D6ED9E402EB08DE4311E6D85F2",1)</f>
+        <v>=DISPIMG("ID_D3ACB0D6ED9E402EB08DE4311E6D85F2",1)</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" ht="37" customHeight="1" spans="1:14">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="N22" s="2"/>
     </row>
     <row r="23" ht="37" customHeight="1" spans="1:14">

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="30720" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,6 +434,35 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="ID_3A1B8F4BCF0C4B34AB3CE341C5ED6561"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17129760" y="10210800"/>
+          <a:ext cx="18392775" cy="9258300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
@@ -1680,8 +1709,8 @@
   <sheetPr/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2512,7 +2541,10 @@
       <c r="M22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_3A1B8F4BCF0C4B34AB3CE341C5ED6561",1)</f>
+        <v>=DISPIMG("ID_3A1B8F4BCF0C4B34AB3CE341C5ED6561",1)</v>
+      </c>
     </row>
     <row r="23" ht="37" customHeight="1" spans="1:14">
       <c r="A23" s="2"/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13440"/>
+    <workbookView windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,42 +147,13 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="ID_3E0A4FA4EAAE4CACB77C08B689004E55"/>
+        <xdr:cNvPr id="7" name="ID_02B3F99283104BCBB532A5A0354AB72C"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15763240" y="3886200"/>
-          <a:ext cx="9620250" cy="7858125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="ID_02B3F99283104BCBB532A5A0354AB72C"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -211,7 +182,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -240,7 +211,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -269,7 +240,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -298,7 +269,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -327,7 +298,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -356,7 +327,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -385,7 +356,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -414,7 +385,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -443,7 +414,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -452,6 +423,35 @@
         <a:xfrm>
           <a:off x="17129760" y="10210800"/>
           <a:ext cx="18392775" cy="9258300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="ID_4322BD9D201E4A40820FC7B99B813840"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17129760" y="3886200"/>
+          <a:ext cx="8039100" cy="5791200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1710,7 +1710,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -2064,8 +2064,8 @@
         <v>17</v>
       </c>
       <c r="N9" s="12" t="str">
-        <f>_xlfn.DISPIMG("ID_3E0A4FA4EAAE4CACB77C08B689004E55",1)</f>
-        <v>=DISPIMG("ID_3E0A4FA4EAAE4CACB77C08B689004E55",1)</v>
+        <f>_xlfn.DISPIMG("ID_4322BD9D201E4A40820FC7B99B813840",1)</f>
+        <v>=DISPIMG("ID_4322BD9D201E4A40820FC7B99B813840",1)</v>
       </c>
     </row>
     <row r="10" ht="37" customHeight="1" spans="1:15">

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12360"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="65">
   <si>
     <t>Номер</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>2 (RK2)</t>
+  </si>
+  <si>
+    <t>для этого расчёта надо сделать мультфильм</t>
   </si>
   <si>
     <t>3.6</t>
@@ -890,6 +893,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -999,12 +1008,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,7 +1223,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1244,16 +1247,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1262,54 +1265,54 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1344,7 +1347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1383,6 +1386,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1710,7 +1716,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -1841,7 +1847,7 @@
       <c r="P3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="14" t="str">
+      <c r="Q3" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</f>
         <v>=DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</v>
       </c>
@@ -1994,7 +2000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="37" customHeight="1" spans="1:14">
+    <row r="8" ht="37" customHeight="1" spans="1:15">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -2030,17 +2036,20 @@
         <f>_xlfn.DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</f>
         <v>=DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</v>
       </c>
+      <c r="O8" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" ht="37" customHeight="1" spans="1:14">
       <c r="A9" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>21</v>
@@ -2070,14 +2079,14 @@
     </row>
     <row r="10" ht="37" customHeight="1" spans="1:15">
       <c r="A10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>21</v>
@@ -2105,19 +2114,19 @@
         <v>=DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:15">
       <c r="A11" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>21</v>
@@ -2138,7 +2147,7 @@
         <v>17</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N11" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</f>
@@ -2148,7 +2157,7 @@
     </row>
     <row r="12" ht="37" customHeight="1" spans="1:14">
       <c r="A12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2158,7 +2167,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>24</v>
@@ -2176,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N12" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</f>
@@ -2185,7 +2194,7 @@
     </row>
     <row r="13" ht="37" customHeight="1" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2220,19 +2229,19 @@
         <v>=DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" ht="54" customHeight="1" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>21</v>
@@ -2253,7 +2262,7 @@
         <v>17</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N14" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</f>
@@ -2262,7 +2271,7 @@
     </row>
     <row r="15" ht="37" customHeight="1" spans="1:14">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2296,7 +2305,7 @@
     </row>
     <row r="16" ht="37" customHeight="1" spans="1:14">
       <c r="A16" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2330,7 +2339,7 @@
     </row>
     <row r="17" ht="37" customHeight="1" spans="1:14">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2349,7 +2358,7 @@
         <v>34</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>16</v>
@@ -2362,14 +2371,14 @@
     </row>
     <row r="18" ht="37" customHeight="1" spans="1:14">
       <c r="A18" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
       <c r="F18" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>21</v>
@@ -2394,14 +2403,14 @@
     </row>
     <row r="19" ht="37" customHeight="1" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>21</v>
@@ -2413,7 +2422,7 @@
         <v>34</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>16</v>
@@ -2429,19 +2438,19 @@
         <v>=DISPIMG("ID_F8652202BAD9483CA0345616A3ED7FD4",1)</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="37" customHeight="1" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>21</v>
@@ -2452,8 +2461,8 @@
       <c r="I20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>60</v>
+      <c r="J20" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>16</v>
@@ -2471,7 +2480,7 @@
     </row>
     <row r="21" ht="37" customHeight="1" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2489,8 +2498,8 @@
       <c r="I21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>60</v>
+      <c r="J21" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>16</v>
@@ -2506,19 +2515,19 @@
         <v>=DISPIMG("ID_D3ACB0D6ED9E402EB08DE4311E6D85F2",1)</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="37" customHeight="1" spans="1:14">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>21</v>
@@ -2529,8 +2538,8 @@
       <c r="I22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>60</v>
+      <c r="J22" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>16</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="25600" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="73">
   <si>
     <t>Номер</t>
   </si>
@@ -475,6 +475,9 @@
     <t>Угол центра перепада (градусов)</t>
   </si>
   <si>
+    <t>d phi</t>
+  </si>
+  <si>
     <t>d (отношение перепада)</t>
   </si>
   <si>
@@ -583,12 +586,18 @@
     <t>27.5 - 32.5</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>3.7</t>
   </si>
   <si>
     <t>25 - 35</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>неустойчивость слабая, в тонком слое вблизи гелиопаузы, на высоких широтах</t>
   </si>
   <si>
@@ -598,6 +607,9 @@
     <t>20 - 40</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>почти нет</t>
   </si>
   <si>
@@ -646,6 +658,9 @@
     <t>22.5 - 37.5</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>очень слабая неустойчивость, вряд-ли будет какое-то существенное проявление в картах ENA</t>
   </si>
   <si>
@@ -662,6 +677,15 @@
   </si>
   <si>
     <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -696,14 +720,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1379,16 +1403,16 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1713,32 +1737,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="5" width="6.02777777777778" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.2222222222222" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5555555555556" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.4444444444444" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5555555555556" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.4444444444444" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.4537037037037" style="1" customWidth="1"/>
-    <col min="15" max="15" width="81.2685185185185" style="1" customWidth="1"/>
-    <col min="16" max="16" width="63.2592592592593" style="1" customWidth="1"/>
-    <col min="17" max="19" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="20" max="25" width="16.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="2" max="5" width="6.02727272727273" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.2181818181818" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5545454545455" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.4454545454545" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.3363636363636" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.4454545454545" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5545454545455" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.4454545454545" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.4545454545455" style="1" customWidth="1"/>
+    <col min="16" max="16" width="81.2727272727273" style="1" customWidth="1"/>
+    <col min="17" max="17" width="63.2636363636364" style="1" customWidth="1"/>
+    <col min="18" max="20" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="21" max="26" width="16.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47" customHeight="1" spans="1:15">
+    <row r="1" ht="47" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1773,29 +1798,30 @@
       <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="37" customHeight="1" spans="1:14">
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="37" customHeight="1" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -1809,27 +1835,30 @@
       <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" ht="37" customHeight="1" spans="1:17">
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" ht="37" customHeight="1" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -1843,34 +1872,37 @@
       <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="P3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="15" t="str">
+      <c r="N3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="Q3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</f>
         <v>=DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</v>
       </c>
     </row>
-    <row r="4" ht="37" customHeight="1" spans="1:14">
+    <row r="4" ht="37" customHeight="1" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -1884,413 +1916,446 @@
       <c r="M4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" ht="37" customHeight="1" spans="1:14">
+      <c r="N4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" ht="37" customHeight="1" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="12" t="str">
+        <v>18</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</f>
         <v>=DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</v>
       </c>
     </row>
-    <row r="6" ht="37" customHeight="1" spans="1:14">
+    <row r="6" ht="37" customHeight="1" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="12" t="str">
+        <v>18</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</f>
         <v>=DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</v>
       </c>
     </row>
-    <row r="7" ht="37" customHeight="1" spans="1:15">
+    <row r="7" ht="37" customHeight="1" spans="1:16">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="12" t="str">
+        <v>18</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</f>
         <v>=DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</v>
       </c>
-      <c r="O7" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" ht="37" customHeight="1" spans="1:15">
+      <c r="P7" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="37" customHeight="1" spans="1:16">
       <c r="A8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="12" t="str">
+        <v>18</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</f>
         <v>=DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" ht="37" customHeight="1" spans="1:14">
+      <c r="P8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="37" customHeight="1" spans="1:15">
       <c r="A9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="12" t="str">
+        <v>18</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_4322BD9D201E4A40820FC7B99B813840",1)</f>
         <v>=DISPIMG("ID_4322BD9D201E4A40820FC7B99B813840",1)</v>
       </c>
     </row>
-    <row r="10" ht="37" customHeight="1" spans="1:15">
+    <row r="10" ht="37" customHeight="1" spans="1:16">
       <c r="A10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="12" t="str">
+        <v>18</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</f>
         <v>=DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</v>
       </c>
-      <c r="O10" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" ht="37" customHeight="1" spans="1:15">
+      <c r="P10" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" ht="37" customHeight="1" spans="1:16">
       <c r="A11" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="12" t="str">
+        <v>18</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</f>
         <v>=DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</v>
       </c>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" ht="37" customHeight="1" spans="1:14">
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" ht="37" customHeight="1" spans="1:15">
       <c r="A12" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" s="12" t="str">
+        <v>18</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</f>
         <v>=DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</v>
       </c>
     </row>
-    <row r="13" ht="37" customHeight="1" spans="1:15">
+    <row r="13" ht="37" customHeight="1" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
       <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="12" t="str">
+        <v>18</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</f>
         <v>=DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" ht="54" customHeight="1" spans="1:14">
+      <c r="P13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" ht="54" customHeight="1" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="12" t="str">
+        <v>18</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</f>
         <v>=DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</v>
       </c>
     </row>
-    <row r="15" ht="37" customHeight="1" spans="1:14">
+    <row r="15" ht="37" customHeight="1" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>16</v>
@@ -2301,293 +2366,351 @@
       <c r="M15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" ht="37" customHeight="1" spans="1:14">
+      <c r="N15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" ht="37" customHeight="1" spans="1:15">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="5"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" ht="37" customHeight="1" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" ht="37" customHeight="1" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N17" s="2"/>
-    </row>
-    <row r="18" ht="37" customHeight="1" spans="1:14">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" ht="37" customHeight="1" spans="1:15">
       <c r="A18" s="10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
       <c r="F18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N18" s="2"/>
-    </row>
-    <row r="19" ht="37" customHeight="1" spans="1:15">
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" ht="37" customHeight="1" spans="1:16">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="12" t="str">
+        <v>18</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_F8652202BAD9483CA0345616A3ED7FD4",1)</f>
         <v>=DISPIMG("ID_F8652202BAD9483CA0345616A3ED7FD4",1)</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" ht="37" customHeight="1" spans="1:14">
+      <c r="P19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" ht="37" customHeight="1" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="12" t="str">
+        <v>18</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_3840878A904E4B56A2DD87192D35456F",1)</f>
         <v>=DISPIMG("ID_3840878A904E4B56A2DD87192D35456F",1)</v>
       </c>
     </row>
-    <row r="21" ht="37" customHeight="1" spans="1:15">
+    <row r="21" ht="37" customHeight="1" spans="1:16">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="12" t="str">
+        <v>18</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_D3ACB0D6ED9E402EB08DE4311E6D85F2",1)</f>
         <v>=DISPIMG("ID_D3ACB0D6ED9E402EB08DE4311E6D85F2",1)</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" ht="37" customHeight="1" spans="1:14">
+      <c r="P21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" ht="37" customHeight="1" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="12" t="str">
+        <v>18</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="11" t="str">
         <f>_xlfn.DISPIMG("ID_3A1B8F4BCF0C4B34AB3CE341C5ED6561",1)</f>
         <v>=DISPIMG("ID_3A1B8F4BCF0C4B34AB3CE341C5ED6561",1)</v>
       </c>
     </row>
-    <row r="23" ht="37" customHeight="1" spans="1:14">
-      <c r="A23" s="2"/>
+    <row r="23" ht="37" customHeight="1" spans="1:15">
+      <c r="A23" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N23" s="2"/>
-    </row>
-    <row r="24" ht="37" customHeight="1" spans="1:14">
-      <c r="A24" s="2"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" ht="37" customHeight="1" spans="1:15">
+      <c r="A24" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N24" s="2"/>
-    </row>
-    <row r="25" ht="37" customHeight="1" spans="1:14">
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" ht="37" customHeight="1" spans="1:15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2602,8 +2725,9 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-    </row>
-    <row r="26" ht="37" customHeight="1" spans="1:14">
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" ht="37" customHeight="1" spans="1:15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2618,8 +2742,9 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-    </row>
-    <row r="27" ht="37" customHeight="1" spans="1:14">
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" ht="37" customHeight="1" spans="1:15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2634,8 +2759,9 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-    </row>
-    <row r="28" ht="37" customHeight="1" spans="1:14">
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" ht="37" customHeight="1" spans="1:15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2650,8 +2776,9 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-    </row>
-    <row r="29" ht="37" customHeight="1" spans="1:14">
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" ht="37" customHeight="1" spans="1:15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2666,8 +2793,9 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-    </row>
-    <row r="30" ht="37" customHeight="1" spans="1:14">
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" ht="37" customHeight="1" spans="1:15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2682,8 +2810,9 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-    </row>
-    <row r="31" ht="37" customHeight="1" spans="1:14">
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" ht="37" customHeight="1" spans="1:15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2698,8 +2827,9 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-    </row>
-    <row r="32" ht="37" customHeight="1" spans="1:14">
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" ht="37" customHeight="1" spans="1:15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2714,8 +2844,9 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-    </row>
-    <row r="33" ht="37" customHeight="1" spans="1:14">
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" ht="37" customHeight="1" spans="1:15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2730,8 +2861,9 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-    </row>
-    <row r="34" ht="37" customHeight="1" spans="1:14">
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" ht="37" customHeight="1" spans="1:15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2746,8 +2878,9 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-    </row>
-    <row r="35" ht="37" customHeight="1" spans="1:14">
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" ht="37" customHeight="1" spans="1:15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2762,6 +2895,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
     </row>
     <row r="36" ht="37" customHeight="1"/>
   </sheetData>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10400"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,11 +463,40 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="ID_54DAF5BED214466BBC185D077DB108F7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17726660" y="11150600"/>
+          <a:ext cx="14173200" cy="9429750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="73">
   <si>
     <t>Номер</t>
   </si>
@@ -1371,7 +1400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1401,6 +1430,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1739,28 +1771,28 @@
   <sheetPr/>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="2" max="5" width="6.02727272727273" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.2181818181818" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5545454545455" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.4454545454545" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.3363636363636" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.4454545454545" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.5545454545455" style="1" customWidth="1"/>
-    <col min="14" max="14" width="31.4454545454545" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.4545454545455" style="1" customWidth="1"/>
-    <col min="16" max="16" width="81.2727272727273" style="1" customWidth="1"/>
-    <col min="17" max="17" width="63.2636363636364" style="1" customWidth="1"/>
-    <col min="18" max="20" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="21" max="26" width="16.3363636363636" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="5" width="6.02777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7037037037037" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.4444444444444" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.4444444444444" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5555555555556" style="1" customWidth="1"/>
+    <col min="14" max="14" width="31.4444444444444" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.4537037037037" style="1" customWidth="1"/>
+    <col min="16" max="16" width="81.2685185185185" style="1" customWidth="1"/>
+    <col min="17" max="17" width="63.2592592592593" style="1" customWidth="1"/>
+    <col min="18" max="20" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="21" max="26" width="16.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:16">
@@ -1876,10 +1908,10 @@
         <v>19</v>
       </c>
       <c r="O3" s="2"/>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="15" t="str">
+      <c r="R3" s="16" t="str">
         <f>_xlfn.DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</f>
         <v>=DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</v>
       </c>
@@ -1956,7 +1988,7 @@
       <c r="N5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="11" t="str">
+      <c r="O5" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</f>
         <v>=DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</v>
       </c>
@@ -1996,7 +2028,7 @@
       <c r="N6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="11" t="str">
+      <c r="O6" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</f>
         <v>=DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</v>
       </c>
@@ -2036,11 +2068,11 @@
       <c r="N7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="11" t="str">
+      <c r="O7" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</f>
         <v>=DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2079,7 +2111,7 @@
       <c r="N8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="11" t="str">
+      <c r="O8" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</f>
         <v>=DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</v>
       </c>
@@ -2122,7 +2154,7 @@
       <c r="N9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="11" t="str">
+      <c r="O9" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_4322BD9D201E4A40820FC7B99B813840",1)</f>
         <v>=DISPIMG("ID_4322BD9D201E4A40820FC7B99B813840",1)</v>
       </c>
@@ -2162,11 +2194,11 @@
       <c r="N10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="11" t="str">
+      <c r="O10" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</f>
         <v>=DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2205,11 +2237,11 @@
       <c r="N11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="11" t="str">
+      <c r="O11" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</f>
         <v>=DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</v>
       </c>
-      <c r="P11" s="12"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" ht="37" customHeight="1" spans="1:15">
       <c r="A12" s="4" t="s">
@@ -2246,7 +2278,7 @@
       <c r="N12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O12" s="11" t="str">
+      <c r="O12" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</f>
         <v>=DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</v>
       </c>
@@ -2286,7 +2318,7 @@
       <c r="N13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="11" t="str">
+      <c r="O13" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</f>
         <v>=DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</v>
       </c>
@@ -2329,7 +2361,7 @@
       <c r="N14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O14" s="11" t="str">
+      <c r="O14" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</f>
         <v>=DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</v>
       </c>
@@ -2513,7 +2545,7 @@
       <c r="N19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="11" t="str">
+      <c r="O19" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_F8652202BAD9483CA0345616A3ED7FD4",1)</f>
         <v>=DISPIMG("ID_F8652202BAD9483CA0345616A3ED7FD4",1)</v>
       </c>
@@ -2544,7 +2576,7 @@
       <c r="J20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="14" t="s">
         <v>66</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -2556,7 +2588,7 @@
       <c r="N20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="11" t="str">
+      <c r="O20" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_3840878A904E4B56A2DD87192D35456F",1)</f>
         <v>=DISPIMG("ID_3840878A904E4B56A2DD87192D35456F",1)</v>
       </c>
@@ -2584,7 +2616,7 @@
       <c r="J21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="14" t="s">
         <v>66</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -2596,7 +2628,7 @@
       <c r="N21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="11" t="str">
+      <c r="O21" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_D3ACB0D6ED9E402EB08DE4311E6D85F2",1)</f>
         <v>=DISPIMG("ID_D3ACB0D6ED9E402EB08DE4311E6D85F2",1)</v>
       </c>
@@ -2627,7 +2659,7 @@
       <c r="J22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="14" t="s">
         <v>66</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -2639,7 +2671,7 @@
       <c r="N22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O22" s="11" t="str">
+      <c r="O22" s="12" t="str">
         <f>_xlfn.DISPIMG("ID_3A1B8F4BCF0C4B34AB3CE341C5ED6561",1)</f>
         <v>=DISPIMG("ID_3A1B8F4BCF0C4B34AB3CE341C5ED6561",1)</v>
       </c>
@@ -2652,7 +2684,9 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G23" s="2" t="s">
         <v>42</v>
       </c>
@@ -2665,7 +2699,7 @@
       <c r="J23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="14" t="s">
         <v>66</v>
       </c>
       <c r="L23" s="2" t="s">
@@ -2675,17 +2709,19 @@
         <v>18</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="11"/>
+      <c r="O23" s="12"/>
     </row>
     <row r="24" ht="37" customHeight="1" spans="1:15">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>72</v>
       </c>
@@ -2698,7 +2734,7 @@
       <c r="J24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="14" t="s">
         <v>66</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -2708,7 +2744,10 @@
         <v>18</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" s="12" t="str">
+        <f>_xlfn.DISPIMG("ID_54DAF5BED214466BBC185D077DB108F7",1)</f>
+        <v>=DISPIMG("ID_54DAF5BED214466BBC185D077DB108F7",1)</v>
+      </c>
     </row>
     <row r="25" ht="37" customHeight="1" spans="1:15">
       <c r="A25" s="2"/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="25600" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,11 +496,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="75">
   <si>
     <t>Номер</t>
   </si>
   <si>
+    <t>rho(t) в 13 точках</t>
+  </si>
+  <si>
     <t>Угол центра перепада (градусов)</t>
   </si>
   <si>
@@ -598,6 +601,9 @@
   </si>
   <si>
     <t>3.5</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
   <si>
     <t>35</t>
@@ -749,14 +755,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1400,17 +1406,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1420,6 +1432,9 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1429,25 +1444,25 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1769,1172 +1784,1214 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="5" width="6.02777777777778" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.2222222222222" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7037037037037" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5555555555556" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.4444444444444" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.5555555555556" style="1" customWidth="1"/>
-    <col min="14" max="14" width="31.4444444444444" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.4537037037037" style="1" customWidth="1"/>
-    <col min="16" max="16" width="81.2685185185185" style="1" customWidth="1"/>
-    <col min="17" max="17" width="63.2592592592593" style="1" customWidth="1"/>
-    <col min="18" max="20" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="21" max="26" width="16.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="2" max="5" width="6.02727272727273" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6909090909091" style="2" customWidth="1"/>
+    <col min="7" max="7" width="35.2181818181818" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5545454545455" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.4454545454545" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.3363636363636" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.4454545454545" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.5545454545455" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.4454545454545" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.4545454545455" style="1" customWidth="1"/>
+    <col min="17" max="17" width="81.2727272727273" style="1" customWidth="1"/>
+    <col min="18" max="18" width="63.2636363636364" style="1" customWidth="1"/>
+    <col min="19" max="21" width="16.3363636363636" style="1" customWidth="1"/>
+    <col min="22" max="27" width="16.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47" customHeight="1" spans="1:16">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="79" customHeight="1" spans="1:17">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" ht="37" customHeight="1" spans="1:15">
-      <c r="A2" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="2" ht="37" customHeight="1" spans="1:16">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" ht="37" customHeight="1" spans="1:19">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" ht="37" customHeight="1" spans="1:18">
-      <c r="A3" s="2" t="s">
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="Q3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="16" t="str">
+      <c r="P3" s="3"/>
+      <c r="R3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="18" t="str">
         <f>_xlfn.DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</f>
         <v>=DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</v>
       </c>
     </row>
-    <row r="4" ht="37" customHeight="1" spans="1:15">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
+    <row r="4" ht="37" customHeight="1" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="I4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" ht="37" customHeight="1" spans="1:15">
-      <c r="A5" s="2" t="s">
+      <c r="N4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" ht="37" customHeight="1" spans="1:16">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="K5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="12" t="str">
+      <c r="N5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</f>
         <v>=DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</v>
       </c>
     </row>
-    <row r="6" ht="37" customHeight="1" spans="1:15">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
+    <row r="6" ht="37" customHeight="1" spans="1:16">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="12" t="str">
+      <c r="N6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</f>
         <v>=DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</v>
       </c>
     </row>
-    <row r="7" ht="37" customHeight="1" spans="1:16">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="37" customHeight="1" spans="1:17">
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="12" t="str">
+      <c r="N7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</f>
         <v>=DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</v>
       </c>
-      <c r="P7" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" ht="37" customHeight="1" spans="1:16">
-      <c r="A8" s="5" t="s">
+      <c r="Q7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3" t="s">
+    </row>
+    <row r="8" ht="37" customHeight="1" spans="1:17">
+      <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="G8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="12" t="str">
+      <c r="N8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</f>
         <v>=DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" ht="37" customHeight="1" spans="1:15">
-      <c r="A9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="Q8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="3" t="s">
+    </row>
+    <row r="9" ht="37" customHeight="1" spans="1:16">
+      <c r="A9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="12" t="str">
+      <c r="N9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_4322BD9D201E4A40820FC7B99B813840",1)</f>
         <v>=DISPIMG("ID_4322BD9D201E4A40820FC7B99B813840",1)</v>
       </c>
     </row>
-    <row r="10" ht="37" customHeight="1" spans="1:16">
-      <c r="A10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="3" t="s">
+    <row r="10" ht="37" customHeight="1" spans="1:17">
+      <c r="A10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="12" t="str">
+      <c r="N10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</f>
         <v>=DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</v>
       </c>
-      <c r="P10" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" ht="37" customHeight="1" spans="1:16">
-      <c r="A11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="3" t="s">
+      <c r="Q10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="3" t="s">
+    </row>
+    <row r="11" ht="37" customHeight="1" spans="1:17">
+      <c r="A11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="12" t="str">
+      <c r="N11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</f>
         <v>=DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</v>
       </c>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" ht="37" customHeight="1" spans="1:15">
-      <c r="A12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" ht="37" customHeight="1" spans="1:16">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="I12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" s="12" t="str">
+      <c r="N12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</f>
         <v>=DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</v>
       </c>
     </row>
-    <row r="13" ht="37" customHeight="1" spans="1:16">
-      <c r="A13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="2" t="s">
+    <row r="13" ht="37" customHeight="1" spans="1:17">
+      <c r="A13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="H13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="12" t="str">
+      <c r="N13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</f>
         <v>=DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" ht="54" customHeight="1" spans="1:15">
-      <c r="A14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="Q13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="2" t="s">
+    </row>
+    <row r="14" ht="54" customHeight="1" spans="1:16">
+      <c r="A14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="12" t="str">
+      <c r="N14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</f>
         <v>=DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</v>
       </c>
     </row>
-    <row r="15" ht="37" customHeight="1" spans="1:15">
-      <c r="A15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="10" t="s">
+    <row r="15" ht="37" customHeight="1" spans="1:16">
+      <c r="A15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" ht="37" customHeight="1" spans="1:16">
+      <c r="A16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" ht="37" customHeight="1" spans="1:16">
+      <c r="A17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="2" t="s">
+      <c r="G17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" ht="37" customHeight="1" spans="1:15">
-      <c r="A16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="2" t="s">
+      <c r="N17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" ht="37" customHeight="1" spans="1:16">
+      <c r="A18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" ht="37" customHeight="1" spans="1:17">
+      <c r="A19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" ht="37" customHeight="1" spans="1:15">
-      <c r="A17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" ht="37" customHeight="1" spans="1:15">
-      <c r="A18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" ht="37" customHeight="1" spans="1:16">
-      <c r="A19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" s="12" t="str">
+      <c r="N19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_F8652202BAD9483CA0345616A3ED7FD4",1)</f>
         <v>=DISPIMG("ID_F8652202BAD9483CA0345616A3ED7FD4",1)</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" ht="37" customHeight="1" spans="1:16">
+      <c r="A20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" ht="37" customHeight="1" spans="1:15">
-      <c r="A20" s="2" t="s">
+      <c r="H20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>35</v>
+      <c r="I20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" s="12" t="str">
+      <c r="N20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_3840878A904E4B56A2DD87192D35456F",1)</f>
         <v>=DISPIMG("ID_3840878A904E4B56A2DD87192D35456F",1)</v>
       </c>
     </row>
-    <row r="21" ht="37" customHeight="1" spans="1:16">
-      <c r="A21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>35</v>
+    <row r="21" ht="37" customHeight="1" spans="1:17">
+      <c r="A21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" s="12" t="str">
+      <c r="N21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_D3ACB0D6ED9E402EB08DE4311E6D85F2",1)</f>
         <v>=DISPIMG("ID_D3ACB0D6ED9E402EB08DE4311E6D85F2",1)</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" ht="37" customHeight="1" spans="1:16">
+      <c r="A22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" ht="37" customHeight="1" spans="1:15">
-      <c r="A22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22" s="12" t="str">
+      <c r="N22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_3A1B8F4BCF0C4B34AB3CE341C5ED6561",1)</f>
         <v>=DISPIMG("ID_3A1B8F4BCF0C4B34AB3CE341C5ED6561",1)</v>
       </c>
     </row>
-    <row r="23" ht="37" customHeight="1" spans="1:15">
-      <c r="A23" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>35</v>
+    <row r="23" ht="37" customHeight="1" spans="1:16">
+      <c r="A23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="12"/>
-    </row>
-    <row r="24" ht="37" customHeight="1" spans="1:15">
-      <c r="A24" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>35</v>
+      <c r="N23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" ht="37" customHeight="1" spans="1:16">
+      <c r="A24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="12" t="str">
+      <c r="N24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="15" t="str">
         <f>_xlfn.DISPIMG("ID_54DAF5BED214466BBC185D077DB108F7",1)</f>
         <v>=DISPIMG("ID_54DAF5BED214466BBC185D077DB108F7",1)</v>
       </c>
     </row>
-    <row r="25" ht="37" customHeight="1" spans="1:15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" ht="37" customHeight="1" spans="1:15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" ht="37" customHeight="1" spans="1:15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" ht="37" customHeight="1" spans="1:15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" ht="37" customHeight="1" spans="1:15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" ht="37" customHeight="1" spans="1:15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" ht="37" customHeight="1" spans="1:15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" ht="37" customHeight="1" spans="1:15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" ht="37" customHeight="1" spans="1:15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" ht="37" customHeight="1" spans="1:15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-    </row>
-    <row r="35" ht="37" customHeight="1" spans="1:15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+    <row r="25" ht="37" customHeight="1" spans="1:16">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" ht="37" customHeight="1" spans="1:16">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" ht="37" customHeight="1" spans="1:16">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" ht="37" customHeight="1" spans="1:16">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" ht="37" customHeight="1" spans="1:16">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" ht="37" customHeight="1" spans="1:16">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" ht="37" customHeight="1" spans="1:16">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" ht="37" customHeight="1" spans="1:16">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" ht="37" customHeight="1" spans="1:16">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" ht="37" customHeight="1" spans="1:16">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" ht="37" customHeight="1" spans="1:16">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
     </row>
     <row r="36" ht="37" customHeight="1"/>
   </sheetData>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10400"/>
+    <workbookView windowWidth="30720" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -913,7 +913,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -947,6 +947,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,7 +1288,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1306,16 +1312,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1324,89 +1330,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1420,9 +1426,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1432,9 +1435,6 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1444,16 +1444,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1786,29 +1786,29 @@
   <sheetPr/>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="2" max="5" width="6.02727272727273" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6909090909091" style="2" customWidth="1"/>
-    <col min="7" max="7" width="35.2181818181818" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.5545454545455" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.4454545454545" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.3363636363636" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.4454545454545" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27.5545454545455" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31.4454545454545" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.4545454545455" style="1" customWidth="1"/>
-    <col min="17" max="17" width="81.2727272727273" style="1" customWidth="1"/>
-    <col min="18" max="18" width="63.2636363636364" style="1" customWidth="1"/>
-    <col min="19" max="21" width="16.3363636363636" style="1" customWidth="1"/>
-    <col min="22" max="27" width="16.3363636363636" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="5" width="6.02777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6944444444444" style="2" customWidth="1"/>
+    <col min="7" max="7" width="35.2222222222222" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7037037037037" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5555555555556" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.4444444444444" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.4444444444444" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.5555555555556" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.4444444444444" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.4537037037037" style="1" customWidth="1"/>
+    <col min="17" max="17" width="81.2685185185185" style="1" customWidth="1"/>
+    <col min="18" max="18" width="63.2592592592593" style="1" customWidth="1"/>
+    <col min="19" max="21" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="22" max="27" width="16.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="79" customHeight="1" spans="1:17">
@@ -1929,10 +1929,10 @@
         <v>20</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="18" t="str">
+      <c r="S3" s="16" t="str">
         <f>_xlfn.DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</f>
         <v>=DISPIMG("ID_2DC6207669014A37BFB9BE39DC187DCE",1)</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="O5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="15" t="str">
+      <c r="P5" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</f>
         <v>=DISPIMG("ID_AAAED62E82D54B409AB5C8B0C7DD6A82",1)</v>
       </c>
@@ -2025,10 +2025,10 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -2052,24 +2052,24 @@
       <c r="O6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="15" t="str">
+      <c r="P6" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</f>
         <v>=DISPIMG("ID_4CFD75D374CE4DDE9E03BA4DC092D744",1)</v>
       </c>
     </row>
     <row r="7" ht="37" customHeight="1" spans="1:17">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -2093,29 +2093,29 @@
       <c r="O7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="15" t="str">
+      <c r="P7" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</f>
         <v>=DISPIMG("ID_6DCA3A3E153C4171953BC0544CE3C76A",1)</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" ht="37" customHeight="1" spans="1:17">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -2124,7 +2124,7 @@
       <c r="J8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -2139,7 +2139,7 @@
       <c r="O8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="15" t="str">
+      <c r="P8" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</f>
         <v>=DISPIMG("ID_49006A477D2349A0BE5661F7511B2CBC",1)</v>
       </c>
@@ -2148,18 +2148,18 @@
       </c>
     </row>
     <row r="9" ht="37" customHeight="1" spans="1:16">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -2183,24 +2183,24 @@
       <c r="O9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="15" t="str">
+      <c r="P9" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_4322BD9D201E4A40820FC7B99B813840",1)</f>
         <v>=DISPIMG("ID_4322BD9D201E4A40820FC7B99B813840",1)</v>
       </c>
     </row>
     <row r="10" ht="37" customHeight="1" spans="1:17">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -2224,27 +2224,27 @@
       <c r="O10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="15" t="str">
+      <c r="P10" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</f>
         <v>=DISPIMG("ID_02B3F99283104BCBB532A5A0354AB72C",1)</v>
       </c>
-      <c r="Q10" s="19" t="s">
+      <c r="Q10" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:17">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="5" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -2268,28 +2268,28 @@
       <c r="O11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="15" t="str">
+      <c r="P11" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</f>
         <v>=DISPIMG("ID_FE861988B73846E0B38C47E32EB5393F",1)</v>
       </c>
-      <c r="Q11" s="19"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" ht="37" customHeight="1" spans="1:16">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="11" t="s">
         <v>51</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -2310,7 +2310,7 @@
       <c r="O12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="15" t="str">
+      <c r="P12" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</f>
         <v>=DISPIMG("ID_B6639CE39850471191E748FA5694FB6F",1)</v>
       </c>
@@ -2319,15 +2319,15 @@
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="5" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -2336,7 +2336,7 @@
       <c r="J13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -2351,7 +2351,7 @@
       <c r="O13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="15" t="str">
+      <c r="P13" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</f>
         <v>=DISPIMG("ID_7C45C7571ED744B89C8B413974F434EA",1)</v>
       </c>
@@ -2360,18 +2360,18 @@
       </c>
     </row>
     <row r="14" ht="54" customHeight="1" spans="1:16">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -2395,24 +2395,24 @@
       <c r="O14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="15" t="str">
+      <c r="P14" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</f>
         <v>=DISPIMG("ID_6D09333D2B624D3AA8D9D1DBAAFF6749",1)</v>
       </c>
     </row>
     <row r="15" ht="37" customHeight="1" spans="1:16">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -2421,7 +2421,7 @@
       <c r="J15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -2439,18 +2439,18 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" ht="37" customHeight="1" spans="1:16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -2459,7 +2459,7 @@
       <c r="J16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -2477,20 +2477,20 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" ht="37" customHeight="1" spans="1:16">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -2499,7 +2499,7 @@
       <c r="J17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -2515,18 +2515,18 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" ht="37" customHeight="1" spans="1:16">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="5" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -2535,7 +2535,7 @@
       <c r="J18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -2571,7 +2571,7 @@
       <c r="J19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L19" s="3" t="s">
@@ -2586,7 +2586,7 @@
       <c r="O19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="15" t="str">
+      <c r="P19" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_F8652202BAD9483CA0345616A3ED7FD4",1)</f>
         <v>=DISPIMG("ID_F8652202BAD9483CA0345616A3ED7FD4",1)</v>
       </c>
@@ -2601,10 +2601,10 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="4"/>
       <c r="G20" s="3" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>65</v>
@@ -2615,10 +2615,10 @@
       <c r="J20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="14" t="s">
         <v>68</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -2630,7 +2630,7 @@
       <c r="O20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P20" s="15" t="str">
+      <c r="P20" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_3840878A904E4B56A2DD87192D35456F",1)</f>
         <v>=DISPIMG("ID_3840878A904E4B56A2DD87192D35456F",1)</v>
       </c>
@@ -2656,10 +2656,10 @@
       <c r="J21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="14" t="s">
         <v>68</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -2671,7 +2671,7 @@
       <c r="O21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P21" s="15" t="str">
+      <c r="P21" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_D3ACB0D6ED9E402EB08DE4311E6D85F2",1)</f>
         <v>=DISPIMG("ID_D3ACB0D6ED9E402EB08DE4311E6D85F2",1)</v>
       </c>
@@ -2686,10 +2686,10 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="4"/>
       <c r="G22" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>41</v>
@@ -2700,10 +2700,10 @@
       <c r="J22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="14" t="s">
         <v>68</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -2715,19 +2715,19 @@
       <c r="O22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P22" s="15" t="str">
+      <c r="P22" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_3A1B8F4BCF0C4B34AB3CE341C5ED6561",1)</f>
         <v>=DISPIMG("ID_3A1B8F4BCF0C4B34AB3CE341C5ED6561",1)</v>
       </c>
     </row>
     <row r="23" ht="37" customHeight="1" spans="1:16">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="4"/>
       <c r="G23" s="3" t="s">
         <v>32</v>
@@ -2741,10 +2741,10 @@
       <c r="J23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="14" t="s">
         <v>68</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -2754,16 +2754,16 @@
         <v>19</v>
       </c>
       <c r="O23" s="3"/>
-      <c r="P23" s="15"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" ht="37" customHeight="1" spans="1:16">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="4"/>
       <c r="G24" s="3" t="s">
         <v>32</v>
@@ -2777,10 +2777,10 @@
       <c r="J24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="14" t="s">
         <v>68</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -2790,7 +2790,7 @@
         <v>19</v>
       </c>
       <c r="O24" s="3"/>
-      <c r="P24" s="15" t="str">
+      <c r="P24" s="13" t="str">
         <f>_xlfn.DISPIMG("ID_54DAF5BED214466BBC185D077DB108F7",1)</f>
         <v>=DISPIMG("ID_54DAF5BED214466BBC185D077DB108F7",1)</v>
       </c>
